--- a/Attack.xlsx
+++ b/Attack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tmp\Attack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019BD180-8747-405C-954F-DB08759E13A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF521D60-4BBA-4175-9F6C-5BE9210C290E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2450" yWindow="50" windowWidth="16010" windowHeight="10430" activeTab="5" xr2:uid="{7137C5DB-1514-4695-BE9D-DD5D84E50DAC}"/>
+    <workbookView xWindow="2400" yWindow="0" windowWidth="16010" windowHeight="10430" activeTab="1" xr2:uid="{7137C5DB-1514-4695-BE9D-DD5D84E50DAC}"/>
   </bookViews>
   <sheets>
     <sheet name="UT W" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="99">
   <si>
     <t>网络结构</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -321,10 +321,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MNIST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BIM(500, 0.05, 0.4)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -333,18 +329,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>demo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cross</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -361,19 +345,85 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>spike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>img</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BIM(100, 0.01)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BIM(100, 0.02, 0.3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIM(100, 0.02, 0.4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CIFAR10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9304(CE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9216(MSE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>events.out.tfevents.1594019617.b44bf0acdae9.31453.0</t>
+  </si>
+  <si>
+    <t>MNIST：L2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CIFAR10：Lmax</t>
+  </si>
+  <si>
+    <t>BIM(25, 0.003)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIM(25, 0.003, 0.06)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIM(25, 0.003, 0.05)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIM(50, 0.002)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIM(50, 0.002, 0.05)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIM(50, 0.002, 0.04)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNIST：L2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CIFAR10：Lmax</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,7 +492,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -488,17 +538,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -816,21 +869,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33AA282C-ADE6-4E8A-AE72-D390D185362C}">
   <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C19"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.08203125" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" customWidth="1"/>
+    <col min="3" max="3" width="8.25" customWidth="1"/>
     <col min="4" max="4" width="10.08203125" customWidth="1"/>
     <col min="5" max="5" width="8.4140625" customWidth="1"/>
     <col min="6" max="6" width="17.5" customWidth="1"/>
     <col min="7" max="7" width="8.58203125" customWidth="1"/>
-    <col min="8" max="8" width="8.25" customWidth="1"/>
+    <col min="8" max="8" width="8.5" customWidth="1"/>
     <col min="9" max="9" width="10.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.08203125" customWidth="1"/>
+    <col min="10" max="10" width="14.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -866,25 +919,25 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="18" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="18" t="s">
         <v>43</v>
       </c>
       <c r="H2">
@@ -893,20 +946,20 @@
       <c r="I2" s="1">
         <v>0.99199999999999999</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>25</v>
+      <c r="J2" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
       <c r="F3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="15"/>
+      <c r="G3" s="18"/>
       <c r="H3">
         <v>6.39</v>
       </c>
@@ -915,15 +968,15 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
       <c r="F4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="15"/>
+      <c r="G4" s="18"/>
       <c r="H4" s="2">
         <v>5.75</v>
       </c>
@@ -932,15 +985,15 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
       <c r="F5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="15"/>
+      <c r="G5" s="18"/>
       <c r="H5">
         <v>4.9000000000000004</v>
       </c>
@@ -949,23 +1002,23 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="18" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="18" t="s">
         <v>43</v>
       </c>
       <c r="H6">
@@ -976,15 +1029,15 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="15"/>
+      <c r="G7" s="18"/>
       <c r="H7">
         <v>3.7</v>
       </c>
@@ -993,15 +1046,15 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
       <c r="F8" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="15"/>
+      <c r="G8" s="18"/>
       <c r="H8">
         <v>3.08</v>
       </c>
@@ -1010,15 +1063,15 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
       <c r="F9" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="15"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="2">
         <v>2.57</v>
       </c>
@@ -1027,15 +1080,15 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="15"/>
+      <c r="G10" s="18"/>
       <c r="H10">
         <v>1.85</v>
       </c>
@@ -1044,21 +1097,21 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="18" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="18" t="s">
         <v>42</v>
       </c>
       <c r="H11">
@@ -1069,15 +1122,15 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
       <c r="F12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="15"/>
+      <c r="G12" s="18"/>
       <c r="H12">
         <v>15.68</v>
       </c>
@@ -1086,15 +1139,15 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="18" t="s">
         <v>43</v>
       </c>
       <c r="H13">
@@ -1105,15 +1158,15 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
       <c r="F14" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="15"/>
+      <c r="G14" s="18"/>
       <c r="H14">
         <v>15.88</v>
       </c>
@@ -1122,15 +1175,15 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
       <c r="F15" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="18" t="s">
         <v>43</v>
       </c>
       <c r="H15">
@@ -1141,15 +1194,15 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
       <c r="F16" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="15"/>
+      <c r="G16" s="18"/>
       <c r="H16">
         <v>7.91</v>
       </c>
@@ -1158,15 +1211,15 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
       <c r="F17" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="15"/>
+      <c r="G17" s="18"/>
       <c r="H17">
         <v>6.67</v>
       </c>
@@ -1175,15 +1228,15 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
       <c r="F18" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G18" s="15"/>
+      <c r="G18" s="18"/>
       <c r="H18" s="2">
         <v>6.16</v>
       </c>
@@ -1192,15 +1245,15 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
       <c r="F19" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G19" s="15"/>
+      <c r="G19" s="18"/>
       <c r="H19">
         <v>5.55</v>
       </c>
@@ -1209,18 +1262,123 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="A20" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.996</v>
+      </c>
+      <c r="J20" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="18"/>
+      <c r="B21" s="5"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="I21" s="10">
+        <v>0.99199999999999999</v>
+      </c>
       <c r="J21" s="3" t="s">
         <v>25</v>
       </c>
     </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="18"/>
+      <c r="B22" s="5"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H22">
+        <v>0.05</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="18"/>
+      <c r="B23" s="5"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23">
+        <v>0.1</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="I24" s="10">
+        <v>0.99199999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25">
+        <v>0.04</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>82</v>
+      </c>
       <c r="J26" s="2" t="s">
         <v>25</v>
       </c>
@@ -1476,7 +1634,12 @@
       <c r="A106" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="20">
+    <mergeCell ref="G6:G10"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="E20:E25"/>
+    <mergeCell ref="C2:C19"/>
     <mergeCell ref="A6:A19"/>
     <mergeCell ref="G2:G5"/>
     <mergeCell ref="A2:A5"/>
@@ -1492,8 +1655,6 @@
     <mergeCell ref="B6:B10"/>
     <mergeCell ref="D6:D10"/>
     <mergeCell ref="E6:E10"/>
-    <mergeCell ref="G6:G10"/>
-    <mergeCell ref="C2:C19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1503,10 +1664,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629CC98C-BD3F-4FCA-8391-72E25583CC37}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1515,14 +1676,15 @@
     <col min="2" max="2" width="8.58203125" customWidth="1"/>
     <col min="3" max="3" width="7.58203125" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.58203125" customWidth="1"/>
+    <col min="5" max="5" width="10.75" customWidth="1"/>
     <col min="6" max="6" width="16.58203125" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" customWidth="1"/>
     <col min="9" max="9" width="11.1640625" customWidth="1"/>
     <col min="10" max="10" width="10.08203125" customWidth="1"/>
+    <col min="12" max="12" width="13.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1556,27 +1718,30 @@
       <c r="K1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="L1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="18" t="s">
         <v>43</v>
       </c>
       <c r="H2">
@@ -1592,17 +1757,20 @@
         <f>I2-J2</f>
         <v>4.0000000000000036E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
+      <c r="L2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
       <c r="F3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="15"/>
+      <c r="G3" s="18"/>
       <c r="H3">
         <v>6.44</v>
       </c>
@@ -1617,16 +1785,16 @@
         <v>4.8000000000000043E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
       <c r="F4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="15"/>
+      <c r="G4" s="18"/>
       <c r="H4">
         <v>5.76</v>
       </c>
@@ -1641,24 +1809,24 @@
         <v>9.9999999999999978E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="18" t="s">
         <v>21</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="18" t="s">
         <v>56</v>
       </c>
       <c r="H5">
@@ -1675,16 +1843,16 @@
         <v>4.0000000000000036E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
       <c r="F6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="15"/>
+      <c r="G6" s="18"/>
       <c r="H6">
         <v>3.08</v>
       </c>
@@ -1699,16 +1867,16 @@
         <v>8.0000000000000071E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="15"/>
+      <c r="G7" s="18"/>
       <c r="H7">
         <v>2.57</v>
       </c>
@@ -1723,16 +1891,16 @@
         <v>2.4000000000000021E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="18" t="s">
         <v>29</v>
       </c>
       <c r="F8" s="5" t="s">
@@ -1755,16 +1923,16 @@
         <v>5.9999999999999942E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
       <c r="F9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="18" t="s">
         <v>56</v>
       </c>
       <c r="H9">
@@ -1781,16 +1949,16 @@
         <v>5.600000000000005E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G10" s="15"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="7">
         <v>5.96</v>
       </c>
@@ -1805,16 +1973,16 @@
         <v>3.6000000000000032E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="15"/>
+      <c r="G11" s="18"/>
       <c r="H11" s="7">
         <v>6.17</v>
       </c>
@@ -1829,38 +1997,78 @@
         <v>4.8000000000000043E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I12-J12</f>
+        <v>0.76</v>
+      </c>
+      <c r="L12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="18"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="K13" s="1">
+        <f>I13-J13</f>
+        <v>0.79600000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H15" s="7"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H16" s="7"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1975,7 +2183,10 @@
       <c r="H37" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="18">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
     <mergeCell ref="C2:C11"/>
     <mergeCell ref="B8:B11"/>
     <mergeCell ref="A5:A11"/>
@@ -2003,7 +2214,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2059,22 +2270,22 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="18" t="s">
         <v>41</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="18" t="s">
         <v>43</v>
       </c>
       <c r="G2">
@@ -2099,14 +2310,14 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="15"/>
+      <c r="F3" s="18"/>
       <c r="G3">
         <v>6.41</v>
       </c>
@@ -2129,14 +2340,14 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="15"/>
+      <c r="F4" s="18"/>
       <c r="G4">
         <v>5.71</v>
       </c>
@@ -2159,20 +2370,20 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="19" t="s">
         <v>41</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="18" t="s">
         <v>56</v>
       </c>
       <c r="G5">
@@ -2197,14 +2408,14 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="15"/>
+      <c r="F6" s="18"/>
       <c r="G6">
         <v>3.08</v>
       </c>
@@ -2227,14 +2438,14 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
       <c r="E7" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="15"/>
+      <c r="F7" s="18"/>
       <c r="G7">
         <v>2.57</v>
       </c>
@@ -2257,14 +2468,14 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="18" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -2295,14 +2506,14 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="18" t="s">
         <v>56</v>
       </c>
       <c r="G9">
@@ -2327,14 +2538,14 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="15"/>
+      <c r="F10" s="18"/>
       <c r="G10">
         <v>5.93</v>
       </c>
@@ -2357,14 +2568,14 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="15"/>
+      <c r="F11" s="18"/>
       <c r="G11">
         <v>6.17</v>
       </c>
@@ -2387,8 +2598,23 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>25</v>
+      <c r="A12" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -2397,6 +2623,12 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="11" t="s">
+        <v>92</v>
+      </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -2404,6 +2636,9 @@
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -2509,8 +2744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10FE9E47-E032-458E-A9D5-CF3950C56D58}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2556,10 +2791,10 @@
       <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="14" t="s">
@@ -2569,7 +2804,7 @@
         <v>7</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>43</v>
@@ -2585,25 +2820,21 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="15" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="18" t="s">
         <v>12</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="18" t="s">
         <v>42</v>
       </c>
       <c r="H3">
@@ -2614,15 +2845,15 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
       <c r="F4" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="15"/>
+      <c r="G4" s="18"/>
       <c r="H4">
         <v>4.1399999999999997</v>
       </c>
@@ -2631,15 +2862,15 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
       <c r="F5" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="15"/>
+      <c r="G5" s="18"/>
       <c r="H5">
         <v>4.07</v>
       </c>
@@ -2648,15 +2879,15 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
       <c r="F6" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G6" s="15"/>
+      <c r="G6" s="18"/>
       <c r="H6" s="2">
         <v>4.01</v>
       </c>
@@ -2665,15 +2896,15 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="15"/>
+      <c r="G7" s="18"/>
       <c r="H7">
         <v>3.87</v>
       </c>
@@ -2682,15 +2913,15 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
       <c r="F8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="18" t="s">
         <v>43</v>
       </c>
       <c r="H8">
@@ -2701,15 +2932,15 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
       <c r="F9" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="15"/>
+      <c r="G9" s="18"/>
       <c r="H9">
         <v>4.6399999999999997</v>
       </c>
@@ -2718,15 +2949,15 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="15"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="2">
         <v>4.2699999999999996</v>
       </c>
@@ -2735,15 +2966,15 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="15"/>
+      <c r="G11" s="18"/>
       <c r="H11">
         <v>3.91</v>
       </c>
@@ -2752,25 +2983,21 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="18" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="15" t="s">
-        <v>78</v>
-      </c>
+      <c r="G12" s="18"/>
       <c r="H12">
         <v>15.68</v>
       </c>
@@ -2782,14 +3009,15 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="15"/>
+      <c r="G13" s="18"/>
       <c r="H13" s="2">
         <v>16.03</v>
       </c>
@@ -2798,14 +3026,15 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
       <c r="F14" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="18" t="s">
         <v>42</v>
       </c>
       <c r="H14">
@@ -2816,14 +3045,15 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
       <c r="F15" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G15" s="15"/>
+      <c r="G15" s="18"/>
       <c r="H15" s="2">
         <v>15.82</v>
       </c>
@@ -2832,18 +3062,18 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
       <c r="F16" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="15">
         <v>16.47</v>
       </c>
       <c r="I16" s="13">
@@ -2851,11 +3081,15 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
       <c r="F17" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="15"/>
+      <c r="G17" s="18"/>
       <c r="H17" s="2">
         <v>16.71</v>
       </c>
@@ -2864,13 +3098,15 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
       <c r="F18" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="G18" s="18"/>
       <c r="H18">
         <v>13.92</v>
       </c>
@@ -2879,15 +3115,15 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
       <c r="F19" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="18"/>
       <c r="H19">
         <v>14.8</v>
       </c>
@@ -2896,10 +3132,15 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
       <c r="F20" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="18"/>
       <c r="H20">
         <v>12.06</v>
       </c>
@@ -2908,17 +3149,32 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
       <c r="F21" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="18"/>
+      <c r="H21">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.95189999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F22" s="5" t="s">
-        <v>79</v>
-      </c>
+      <c r="G22" s="18"/>
       <c r="H22">
         <v>13.28</v>
       </c>
@@ -2927,9 +3183,15 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
       <c r="F23" s="5" t="s">
-        <v>80</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G23" s="18"/>
       <c r="H23">
         <v>9.51</v>
       </c>
@@ -2938,11 +3200,37 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
       <c r="F24" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H24" t="s">
-        <v>77</v>
+        <v>80</v>
+      </c>
+      <c r="G24" s="18"/>
+      <c r="H24">
+        <v>7.98</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0.99260000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="18"/>
+      <c r="H25">
+        <v>6.16</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.88890000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
@@ -2950,10 +3238,10 @@
         <v>25</v>
       </c>
       <c r="H30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
@@ -2962,23 +3250,26 @@
       </c>
       <c r="G31" s="5"/>
       <c r="H31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
+    <mergeCell ref="A3:A25"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="G8:G13"/>
+    <mergeCell ref="G16:G25"/>
+    <mergeCell ref="E12:E25"/>
+    <mergeCell ref="D12:D25"/>
+    <mergeCell ref="C2:C25"/>
+    <mergeCell ref="B12:B25"/>
     <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="B3:B11"/>
-    <mergeCell ref="C3:C11"/>
     <mergeCell ref="D3:D11"/>
     <mergeCell ref="E3:E11"/>
     <mergeCell ref="G3:G7"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="G12:G13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2991,7 +3282,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3042,10 +3333,10 @@
       <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="14" t="s">
@@ -3055,7 +3346,7 @@
         <v>22</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>43</v>
@@ -3070,22 +3361,20 @@
         <v>0.1111</v>
       </c>
       <c r="K2" s="1">
-        <f>I2-J2</f>
+        <f t="shared" ref="K2:K8" si="0">I2-J2</f>
         <v>0.80369999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15" t="s">
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="18" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="11" t="s">
@@ -3104,20 +3393,20 @@
         <v>0.83699999999999997</v>
       </c>
       <c r="K3" s="1">
-        <f>I3-J3</f>
+        <f t="shared" si="0"/>
         <v>0.15560000000000007</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
       <c r="F4" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="18" t="s">
         <v>43</v>
       </c>
       <c r="H4" s="4">
@@ -3130,29 +3419,27 @@
         <v>0.88149999999999995</v>
       </c>
       <c r="K4" s="1">
-        <f>I4-J4</f>
+        <f t="shared" si="0"/>
         <v>0.10370000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="18" t="s">
         <v>29</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="H5" s="18">
+      <c r="G5" s="18"/>
+      <c r="H5" s="16">
         <v>15.97</v>
       </c>
       <c r="I5" s="1">
@@ -3162,30 +3449,84 @@
         <v>0.1111</v>
       </c>
       <c r="K5" s="1">
-        <f>I5-J5</f>
+        <f t="shared" si="0"/>
         <v>0.88890000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
       <c r="F6" s="11" t="s">
         <v>71</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="H6" s="16">
+        <v>15.86</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.11109999999999999</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.88890000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" s="18" t="s">
-        <v>83</v>
+      <c r="G7" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="16">
+        <v>16.690000000000001</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.99629999999999996</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.11109999999999999</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.88519999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="18"/>
+      <c r="H8">
+        <v>7.99</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.99260000000000004</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.3407</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.65190000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -3245,10 +3586,17 @@
       <c r="K18" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B3:B4"/>
+  <mergeCells count="10">
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="D5:D8"/>
+    <mergeCell ref="E5:E8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3260,8 +3608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C294FB1-68EB-46A3-966D-67EBBD7D6BA3}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3313,7 +3661,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -3326,7 +3674,7 @@
         <v>41</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>43</v>
@@ -3353,16 +3701,14 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="15" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="19" t="s">
         <v>41</v>
       </c>
       <c r="E3" s="11" t="s">
@@ -3393,10 +3739,10 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
       <c r="E4" s="12" t="s">
         <v>68</v>
       </c>
@@ -3425,69 +3771,138 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="18" t="s">
         <v>40</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>51</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="G5" s="16">
+        <v>15.98</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.1111</v>
+      </c>
+      <c r="J5" s="1">
+        <f>H5-I5</f>
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.1111</v>
+      </c>
+      <c r="L5" s="1">
+        <f>H5-K5</f>
+        <v>0.88890000000000002</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="11" t="s">
         <v>71</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="G6">
+        <v>15.83</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.99629999999999996</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.1111</v>
+      </c>
+      <c r="J6" s="1">
+        <f>H6-I6</f>
+        <v>0.88519999999999999</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.1111</v>
+      </c>
+      <c r="L6" s="1">
+        <f>H6-K6</f>
+        <v>0.88519999999999999</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="11"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="11" t="s">
         <v>71</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="G7">
+        <v>16.690000000000001</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.1111</v>
+      </c>
+      <c r="J7" s="1">
+        <f>H7-I7</f>
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.1111</v>
+      </c>
+      <c r="L7" s="1">
+        <f>H7-K7</f>
+        <v>0.88890000000000002</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8">
+        <v>7.98</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.99260000000000004</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.17780000000000001</v>
+      </c>
+      <c r="J8" s="1">
+        <f>H8-I8</f>
+        <v>0.81479999999999997</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.37780000000000002</v>
+      </c>
+      <c r="L8" s="1">
+        <f>H8-K8</f>
+        <v>0.61480000000000001</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
@@ -3551,10 +3966,14 @@
       <c r="L15" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="C5:C8"/>
+    <mergeCell ref="D5:D8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
